--- a/CashFlow/BA_cashflow.xlsx
+++ b/CashFlow/BA_cashflow.xlsx
@@ -74,10 +74,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="17.6"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="17.6"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="17.6"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="17.6"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="16.5"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="16.5"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="16.5"/>
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-10685000000.0</v>
+        <v>335089000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>-12062000000.0</v>
+        <v>332441000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>-12051000000.0</v>
+        <v>247900000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>-12077000000.0</v>
+        <v>156607000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>-11302000000.0</v>
+        <v>70354000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-12391000000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-5152000000.0</v>
+        <v>53517000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-5363000000.0</v>
+        <v>56070000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-1017000000.0</v>
+        <v>45428000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-359000000.0</v>
+        <v>31485000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>7670000000.0</v>
+        <v>23663000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>7781000000.0</v>
